--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,75 +46,75 @@
     <t>creepy</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>dangerous</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>addicted</t>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>disturbing</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>scary</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>behind</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>dark</t>
+    <t>serious</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -136,42 +136,42 @@
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>important</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>many</t>
   </si>
   <si>
@@ -187,25 +187,34 @@
     <t>really</t>
   </si>
   <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
     <t>documentary</t>
   </si>
   <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
     <t>watching</t>
   </si>
   <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>dilemma</t>
   </si>
   <si>
     <t>’</t>
@@ -572,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,7 +592,7 @@
         <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -665,13 +674,13 @@
         <v>36</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -683,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -744,10 +753,10 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -759,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>38</v>
@@ -791,13 +800,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -809,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K6">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -833,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -841,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8939393939393939</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -859,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K7">
-        <v>0.7894736842105263</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -883,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -891,13 +900,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8823529411764706</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -909,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K8">
-        <v>0.7543859649122807</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -933,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -941,13 +950,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -959,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K9">
-        <v>0.7333333333333333</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L9">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -983,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -991,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1015,13 +1024,13 @@
         <v>43</v>
       </c>
       <c r="K10">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1033,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1044,10 +1053,10 @@
         <v>0.75</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1059,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K11">
-        <v>0.6896551724137931</v>
+        <v>0.64</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1083,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,13 +1100,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>0.725</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1109,31 +1118,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K12">
-        <v>0.6111111111111112</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="L12">
+        <v>18</v>
+      </c>
+      <c r="M12">
+        <v>18</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>11</v>
-      </c>
-      <c r="M12">
-        <v>11</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1141,13 +1150,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7368421052631579</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1159,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K13">
-        <v>0.5925925925925926</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="L13">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1183,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1191,13 +1200,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1209,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K14">
-        <v>0.5833333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L14">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M14">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1233,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1241,13 +1250,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1265,13 +1274,13 @@
         <v>48</v>
       </c>
       <c r="K15">
-        <v>0.4242424242424243</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1283,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1291,13 +1300,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6428571428571429</v>
+        <v>0.6</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1309,19 +1318,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K16">
-        <v>0.3958333333333333</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1333,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1341,13 +1350,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6382978723404256</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1359,19 +1368,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K17">
-        <v>0.3888888888888889</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1383,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1391,13 +1400,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.625</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1409,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K18">
-        <v>0.288135593220339</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1433,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1441,13 +1450,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6231884057971014</v>
+        <v>0.5625</v>
       </c>
       <c r="C19">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1459,19 +1468,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K19">
-        <v>0.2439024390243902</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="L19">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M19">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1483,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1491,13 +1500,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5897435897435898</v>
+        <v>0.55</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1509,19 +1518,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K20">
-        <v>0.2431693989071038</v>
+        <v>0.2331511839708561</v>
       </c>
       <c r="L20">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="M20">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1533,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>831</v>
+        <v>842</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1541,13 +1550,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5882352941176471</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1559,19 +1568,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K21">
-        <v>0.1956521739130435</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="L21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1583,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1591,13 +1600,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1609,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K22">
-        <v>0.1639344262295082</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L22">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M22">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1633,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1641,13 +1650,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4782608695652174</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1659,19 +1668,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K23">
-        <v>0.1473684210526316</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L23">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1683,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1691,13 +1700,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4642857142857143</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1709,13 +1718,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K24">
-        <v>0.1176470588235294</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L24">
         <v>10</v>
@@ -1733,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>75</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1741,13 +1750,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4642857142857143</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1759,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K25">
-        <v>0.04946996466431095</v>
+        <v>0.1549295774647887</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1783,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>269</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1791,13 +1800,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4583333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1809,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K26">
-        <v>0.04367469879518072</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1833,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>635</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1841,7 +1850,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4230769230769231</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -1859,19 +1868,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K27">
-        <v>0.03888888888888889</v>
+        <v>0.1506849315068493</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1883,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>519</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1915,13 +1924,13 @@
         <v>61</v>
       </c>
       <c r="K28">
-        <v>0.02932551319648094</v>
+        <v>0.1411764705882353</v>
       </c>
       <c r="L28">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M28">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1933,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>331</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1941,37 +1950,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04406779661016949</v>
+        <v>0.04697986577181208</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E29">
-        <v>0.24</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F29">
-        <v>0.76</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K29">
-        <v>0.02922077922077922</v>
+        <v>0.05</v>
       </c>
       <c r="L29">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M29">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1983,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>598</v>
+        <v>513</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1991,13 +2000,13 @@
         <v>63</v>
       </c>
       <c r="K30">
-        <v>0.02857142857142857</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="L30">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="M30">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2009,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>306</v>
+        <v>640</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2017,13 +2026,13 @@
         <v>64</v>
       </c>
       <c r="K31">
-        <v>0.02560819462227913</v>
+        <v>0.0353356890459364</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2035,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>761</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2043,25 +2052,103 @@
         <v>65</v>
       </c>
       <c r="K32">
-        <v>0.02073732718894009</v>
+        <v>0.03519061583577713</v>
       </c>
       <c r="L32">
+        <v>12</v>
+      </c>
+      <c r="M32">
+        <v>12</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33">
+        <v>0.02597402597402598</v>
+      </c>
+      <c r="L33">
+        <v>16</v>
+      </c>
+      <c r="M33">
+        <v>16</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34">
+        <v>0.02304737516005122</v>
+      </c>
+      <c r="L34">
+        <v>18</v>
+      </c>
+      <c r="M34">
+        <v>18</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K35">
+        <v>0.0207492795389049</v>
+      </c>
+      <c r="L35">
         <v>36</v>
       </c>
-      <c r="M32">
-        <v>36</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>1700</v>
+      <c r="M35">
+        <v>37</v>
+      </c>
+      <c r="N35">
+        <v>0.97</v>
+      </c>
+      <c r="O35">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1699</v>
       </c>
     </row>
   </sheetData>
